--- a/src/Data/AutomationInputSheet_PhaseRegressionJetUI_update.XLSX
+++ b/src/Data/AutomationInputSheet_PhaseRegressionJetUI_update.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashwanis\git\CPQ\src\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akashs\git\CPQ\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3635" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="317">
   <si>
     <t>Product</t>
   </si>
@@ -1013,6 +1013,15 @@
   <si>
     <t>Fast Track-Bespoke</t>
   </si>
+  <si>
+    <t>Ubb Discount</t>
+  </si>
+  <si>
+    <t>Ubb Discount Type</t>
+  </si>
+  <si>
+    <t>Ubb Discount value</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,16 +1364,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1374,9 +1383,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1397,8 +1403,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,25 +1421,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1441,6 +1444,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1759,10 +1768,10 @@
   <dimension ref="A1:XEJ122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,64 +1818,67 @@
     <col min="47" max="47" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="26" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="70"/>
+      <c r="AN1" s="70"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+      <c r="AS1" s="70"/>
+      <c r="AT1" s="70"/>
+      <c r="AU1" s="70"/>
+      <c r="AV1" s="70"/>
+      <c r="AW1" s="70"/>
+      <c r="AX1" s="70"/>
+      <c r="AY1" s="70"/>
     </row>
-    <row r="2" spans="1:51" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
@@ -2020,21 +2032,30 @@
       <c r="AY2" s="49" t="s">
         <v>311</v>
       </c>
+      <c r="AZ2" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="BA2" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="BB2" s="49" t="s">
+        <v>316</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+    <row r="3" spans="1:54" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="57">
         <v>3795623</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -2083,7 +2104,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+    <row r="4" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
@@ -2156,7 +2177,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="59"/>
+      <c r="AB4" s="57"/>
       <c r="AC4" s="22" t="s">
         <v>38</v>
       </c>
@@ -2171,14 +2192,14 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+    <row r="5" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
@@ -2223,7 +2244,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="59"/>
+      <c r="AB5" s="57"/>
       <c r="AC5" s="22" t="s">
         <v>38</v>
       </c>
@@ -2238,20 +2259,20 @@
       </c>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:51" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:54" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="57">
         <v>3795623</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -2300,7 +2321,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="59" t="s">
+      <c r="AB6" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC6" s="22" t="s">
@@ -2317,14 +2338,14 @@
       </c>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+    <row r="7" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2392,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="59"/>
+      <c r="AB7" s="57"/>
       <c r="AC7" s="22" t="s">
         <v>38</v>
       </c>
@@ -2386,14 +2407,14 @@
       </c>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+    <row r="8" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2461,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="59"/>
+      <c r="AB8" s="57"/>
       <c r="AC8" s="22" t="s">
         <v>38</v>
       </c>
@@ -2455,14 +2476,14 @@
       </c>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+    <row r="9" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
@@ -2509,7 +2530,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="59"/>
+      <c r="AB9" s="57"/>
       <c r="AC9" s="22" t="s">
         <v>38</v>
       </c>
@@ -2524,20 +2545,20 @@
       </c>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:51" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+    <row r="10" spans="1:54" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="59">
+      <c r="D10" s="57">
         <v>3795623</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -2588,7 +2609,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="59" t="s">
+      <c r="AB10" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC10" s="22" t="s">
@@ -2605,14 +2626,14 @@
       </c>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:51" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
+    <row r="11" spans="1:54" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="15" t="s">
         <v>30</v>
       </c>
@@ -2661,7 +2682,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="59"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="22" t="s">
         <v>38</v>
       </c>
@@ -2676,14 +2697,14 @@
       </c>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:51" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
+    <row r="12" spans="1:54" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
@@ -2732,7 +2753,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="59"/>
+      <c r="AB12" s="57"/>
       <c r="AC12" s="22" t="s">
         <v>38</v>
       </c>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:51" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
+    <row r="13" spans="1:54" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
@@ -2803,7 +2824,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="59"/>
+      <c r="AB13" s="57"/>
       <c r="AC13" s="22" t="s">
         <v>38</v>
       </c>
@@ -2818,20 +2839,20 @@
       </c>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:51" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:54" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="59">
+      <c r="D14" s="57">
         <v>3795623</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="15" t="s">
@@ -2878,7 +2899,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="59" t="s">
+      <c r="AB14" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC14" s="22" t="s">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:51" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
+    <row r="15" spans="1:54" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="63"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
@@ -2947,7 +2968,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="59"/>
+      <c r="AB15" s="57"/>
       <c r="AC15" s="22" t="s">
         <v>38</v>
       </c>
@@ -2962,20 +2983,20 @@
       </c>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:51" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:54" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="59">
+      <c r="D16" s="57">
         <v>3795623</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="15" t="s">
@@ -3028,7 +3049,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="59" t="s">
+      <c r="AB16" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC16" s="22" t="s">
@@ -3046,13 +3067,13 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="15" t="s">
         <v>91</v>
       </c>
@@ -3103,7 +3124,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="59"/>
+      <c r="AB17" s="57"/>
       <c r="AC17" s="22" t="s">
         <v>38</v>
       </c>
@@ -3119,13 +3140,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="15" t="s">
         <v>91</v>
       </c>
@@ -3176,7 +3197,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="59"/>
+      <c r="AB18" s="57"/>
       <c r="AC18" s="22" t="s">
         <v>38</v>
       </c>
@@ -3192,13 +3213,13 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="15" t="s">
         <v>91</v>
       </c>
@@ -3249,7 +3270,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="59"/>
+      <c r="AB19" s="57"/>
       <c r="AC19" s="22" t="s">
         <v>38</v>
       </c>
@@ -3265,19 +3286,19 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="57">
         <v>3795623</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="15" t="s">
@@ -3322,7 +3343,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="59" t="s">
+      <c r="AB20" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC20" s="22" t="s">
@@ -3340,13 +3361,13 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="15" t="s">
         <v>91</v>
       </c>
@@ -3397,7 +3418,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="59"/>
+      <c r="AB21" s="57"/>
       <c r="AC21" s="22" t="s">
         <v>38</v>
       </c>
@@ -3413,13 +3434,13 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="15" t="s">
         <v>91</v>
       </c>
@@ -3470,7 +3491,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="59"/>
+      <c r="AB22" s="57"/>
       <c r="AC22" s="22" t="s">
         <v>38</v>
       </c>
@@ -3486,13 +3507,13 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="15" t="s">
         <v>91</v>
       </c>
@@ -3543,7 +3564,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="59"/>
+      <c r="AB23" s="57"/>
       <c r="AC23" s="22" t="s">
         <v>38</v>
       </c>
@@ -3559,13 +3580,13 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="15" t="s">
         <v>91</v>
       </c>
@@ -3616,7 +3637,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="59"/>
+      <c r="AB24" s="57"/>
       <c r="AC24" s="22" t="s">
         <v>38</v>
       </c>
@@ -3632,19 +3653,19 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="59">
+      <c r="D25" s="57">
         <v>3795623</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15" t="s">
@@ -3693,7 +3714,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="59" t="s">
+      <c r="AB25" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC25" s="22" t="s">
@@ -3711,13 +3732,13 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="63"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="15" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3787,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="59"/>
+      <c r="AB26" s="57"/>
       <c r="AC26" s="22" t="s">
         <v>38</v>
       </c>
@@ -3782,13 +3803,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="63"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="15" t="s">
         <v>91</v>
       </c>
@@ -3839,7 +3860,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="59"/>
+      <c r="AB27" s="57"/>
       <c r="AC27" s="22" t="s">
         <v>38</v>
       </c>
@@ -3855,13 +3876,13 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="15" t="s">
         <v>26</v>
       </c>
@@ -3906,7 +3927,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="59"/>
+      <c r="AB28" s="57"/>
       <c r="AC28" s="22" t="s">
         <v>38</v>
       </c>
@@ -3922,13 +3943,13 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="15" t="s">
         <v>91</v>
       </c>
@@ -3979,7 +4000,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="59"/>
+      <c r="AB29" s="57"/>
       <c r="AC29" s="22" t="s">
         <v>38</v>
       </c>
@@ -4410,19 +4431,19 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="58">
         <v>3795623</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="15" t="s">
@@ -4471,7 +4492,7 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="59" t="s">
+      <c r="AB35" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC35" s="22" t="s">
@@ -4489,13 +4510,13 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="15" t="s">
         <v>26</v>
       </c>
@@ -4540,7 +4561,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="59"/>
+      <c r="AB36" s="57"/>
       <c r="AC36" s="22" t="s">
         <v>38</v>
       </c>
@@ -5042,19 +5063,19 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="70" t="s">
+      <c r="A43" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="58">
         <v>3795623</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -5105,7 +5126,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
-      <c r="AB43" s="59" t="s">
+      <c r="AB43" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC43" s="22" t="s">
@@ -5123,13 +5144,13 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="15" t="s">
         <v>7</v>
       </c>
@@ -5178,7 +5199,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="59"/>
+      <c r="AB44" s="57"/>
       <c r="AC44" s="22" t="s">
         <v>38</v>
       </c>
@@ -5194,13 +5215,13 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="15" t="s">
         <v>7</v>
       </c>
@@ -5249,7 +5270,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
-      <c r="AB45" s="59"/>
+      <c r="AB45" s="57"/>
       <c r="AC45" s="22" t="s">
         <v>38</v>
       </c>
@@ -5265,13 +5286,13 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="15" t="s">
         <v>7</v>
       </c>
@@ -5320,7 +5341,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="59"/>
+      <c r="AB46" s="57"/>
       <c r="AC46" s="22" t="s">
         <v>38</v>
       </c>
@@ -5336,13 +5357,13 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="63"/>
+      <c r="A47" s="59"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="15" t="s">
         <v>7</v>
       </c>
@@ -5391,7 +5412,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
-      <c r="AB47" s="59"/>
+      <c r="AB47" s="57"/>
       <c r="AC47" s="22" t="s">
         <v>38</v>
       </c>
@@ -5488,19 +5509,19 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="58" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="63">
+      <c r="D49" s="58">
         <v>3795623</v>
       </c>
-      <c r="E49" s="63" t="s">
+      <c r="E49" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="15" t="s">
@@ -5553,7 +5574,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
-      <c r="AB49" s="59" t="s">
+      <c r="AB49" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC49" s="22" t="s">
@@ -5571,13 +5592,13 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="63"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="15" t="s">
         <v>7</v>
       </c>
@@ -5628,7 +5649,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-      <c r="AB50" s="59"/>
+      <c r="AB50" s="57"/>
       <c r="AC50" s="22" t="s">
         <v>38</v>
       </c>
@@ -5644,13 +5665,13 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="63"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="15" t="s">
         <v>7</v>
       </c>
@@ -5701,7 +5722,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-      <c r="AB51" s="59"/>
+      <c r="AB51" s="57"/>
       <c r="AC51" s="22" t="s">
         <v>38</v>
       </c>
@@ -5717,13 +5738,13 @@
       <c r="AG51" s="1"/>
     </row>
     <row r="52" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="63"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
@@ -5770,7 +5791,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-      <c r="AB52" s="59"/>
+      <c r="AB52" s="57"/>
       <c r="AC52" s="22" t="s">
         <v>38</v>
       </c>
@@ -5786,19 +5807,19 @@
       <c r="AG52" s="1"/>
     </row>
     <row r="53" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="63">
+      <c r="D53" s="58">
         <v>3795623</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="15" t="s">
@@ -5857,7 +5878,7 @@
       <c r="AA53" s="15">
         <v>8</v>
       </c>
-      <c r="AB53" s="59" t="s">
+      <c r="AB53" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC53" s="22" t="s">
@@ -5875,13 +5896,13 @@
       <c r="AG53" s="1"/>
     </row>
     <row r="54" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="63"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="15" t="s">
         <v>7</v>
       </c>
@@ -5938,7 +5959,7 @@
       <c r="AA54" s="15">
         <v>8</v>
       </c>
-      <c r="AB54" s="59"/>
+      <c r="AB54" s="57"/>
       <c r="AC54" s="22" t="s">
         <v>38</v>
       </c>
@@ -5954,13 +5975,13 @@
       <c r="AG54" s="1"/>
     </row>
     <row r="55" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="63"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="15" t="s">
         <v>7</v>
       </c>
@@ -6017,7 +6038,7 @@
       <c r="AA55" s="15">
         <v>8</v>
       </c>
-      <c r="AB55" s="59"/>
+      <c r="AB55" s="57"/>
       <c r="AC55" s="22" t="s">
         <v>38</v>
       </c>
@@ -6033,13 +6054,13 @@
       <c r="AG55" s="1"/>
     </row>
     <row r="56" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="63"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="15" t="s">
         <v>7</v>
       </c>
@@ -6086,7 +6107,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="59"/>
+      <c r="AB56" s="57"/>
       <c r="AC56" s="22" t="s">
         <v>38</v>
       </c>
@@ -6102,13 +6123,13 @@
       <c r="AG56" s="1"/>
     </row>
     <row r="57" spans="1:16364" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="63"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="15" t="s">
         <v>7</v>
       </c>
@@ -6155,7 +6176,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="59"/>
+      <c r="AB57" s="57"/>
       <c r="AC57" s="22" t="s">
         <v>38</v>
       </c>
@@ -22992,19 +23013,19 @@
       <c r="AG63" s="1"/>
     </row>
     <row r="64" spans="1:16364" x14ac:dyDescent="0.25">
-      <c r="A64" s="59" t="s">
+      <c r="A64" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="63">
+      <c r="D64" s="58">
         <v>3795623</v>
       </c>
-      <c r="E64" s="59" t="s">
+      <c r="E64" s="57" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="15" t="s">
@@ -23073,13 +23094,13 @@
       <c r="AG64" s="1"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="59"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="15" t="s">
         <v>7</v>
       </c>
@@ -23146,13 +23167,13 @@
       <c r="AG65" s="1"/>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="63"/>
-      <c r="E66" s="59"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="15" t="s">
         <v>30</v>
       </c>
@@ -23221,13 +23242,13 @@
       <c r="AG66" s="1"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="59"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="15" t="s">
         <v>30</v>
       </c>
@@ -23385,19 +23406,19 @@
       <c r="AG68" s="1"/>
     </row>
     <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="63" t="s">
+      <c r="B69" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D69" s="63">
+      <c r="D69" s="58">
         <v>3795623</v>
       </c>
-      <c r="E69" s="63" t="s">
+      <c r="E69" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="15" t="s">
@@ -23452,7 +23473,7 @@
       <c r="AA69" s="15">
         <v>4</v>
       </c>
-      <c r="AB69" s="59" t="s">
+      <c r="AB69" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC69" s="22" t="s">
@@ -23470,13 +23491,13 @@
       <c r="AG69" s="1"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
       <c r="C70" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
       <c r="F70" s="15" t="s">
         <v>26</v>
       </c>
@@ -23521,7 +23542,7 @@
       <c r="Y70" s="15"/>
       <c r="Z70" s="15"/>
       <c r="AA70" s="15"/>
-      <c r="AB70" s="59"/>
+      <c r="AB70" s="57"/>
       <c r="AC70" s="22" t="s">
         <v>38</v>
       </c>
@@ -23537,19 +23558,19 @@
       <c r="AG70" s="1"/>
     </row>
     <row r="71" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="63" t="s">
+      <c r="B71" s="58" t="s">
         <v>41</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D71" s="63">
+      <c r="D71" s="58">
         <v>3795623</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="15" t="s">
@@ -23604,7 +23625,7 @@
       <c r="AA71" s="15">
         <v>4</v>
       </c>
-      <c r="AB71" s="59" t="s">
+      <c r="AB71" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC71" s="22" t="s">
@@ -23622,13 +23643,13 @@
       <c r="AG71" s="1"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A72" s="63"/>
-      <c r="B72" s="63"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
       <c r="C72" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="15" t="s">
         <v>26</v>
       </c>
@@ -23673,7 +23694,7 @@
       <c r="Y72" s="15"/>
       <c r="Z72" s="15"/>
       <c r="AA72" s="15"/>
-      <c r="AB72" s="59"/>
+      <c r="AB72" s="57"/>
       <c r="AC72" s="22" t="s">
         <v>38</v>
       </c>
@@ -26888,10 +26909,10 @@
       <c r="AG111" s="21"/>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
+      <c r="A112" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C112" s="15" t="s">
@@ -26967,8 +26988,8 @@
       <c r="AG112" s="21"/>
     </row>
     <row r="113" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="68"/>
+      <c r="A113" s="64"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="15" t="s">
         <v>49</v>
       </c>
@@ -27047,8 +27068,8 @@
       </c>
     </row>
     <row r="114" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="68"/>
+      <c r="A114" s="64"/>
+      <c r="B114" s="67"/>
       <c r="C114" s="15" t="s">
         <v>49</v>
       </c>
@@ -27133,8 +27154,8 @@
       </c>
     </row>
     <row r="115" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="68"/>
+      <c r="A115" s="64"/>
+      <c r="B115" s="67"/>
       <c r="C115" s="15" t="s">
         <v>49</v>
       </c>
@@ -27219,8 +27240,8 @@
       </c>
     </row>
     <row r="116" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A116" s="66"/>
-      <c r="B116" s="69"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="68"/>
       <c r="C116" s="15"/>
       <c r="D116" s="62"/>
       <c r="E116" s="35" t="s">
@@ -27301,10 +27322,10 @@
       </c>
     </row>
     <row r="117" spans="1:51" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B117" s="67" t="s">
+      <c r="B117" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C117" s="15" t="s">
@@ -27392,8 +27413,8 @@
       </c>
     </row>
     <row r="118" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A118" s="65"/>
-      <c r="B118" s="68"/>
+      <c r="A118" s="64"/>
+      <c r="B118" s="67"/>
       <c r="C118" s="15" t="s">
         <v>49</v>
       </c>
@@ -27478,8 +27499,8 @@
       </c>
     </row>
     <row r="119" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A119" s="65"/>
-      <c r="B119" s="68"/>
+      <c r="A119" s="64"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="15" t="s">
         <v>49</v>
       </c>
@@ -27573,8 +27594,8 @@
       </c>
     </row>
     <row r="120" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A120" s="65"/>
-      <c r="B120" s="68"/>
+      <c r="A120" s="64"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="15" t="s">
         <v>49</v>
       </c>
@@ -27680,8 +27701,8 @@
       </c>
     </row>
     <row r="121" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A121" s="66"/>
-      <c r="B121" s="69"/>
+      <c r="A121" s="65"/>
+      <c r="B121" s="68"/>
       <c r="C121" s="15"/>
       <c r="D121" s="62"/>
       <c r="E121" s="35" t="s">
@@ -27917,24 +27938,48 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="AB6:AB9"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="A1:AY1"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AB71:AB72"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="AB69:AB70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="AB10:AB13"/>
+    <mergeCell ref="AB14:AB15"/>
+    <mergeCell ref="AB16:AB19"/>
+    <mergeCell ref="AB20:AB24"/>
+    <mergeCell ref="AB25:AB29"/>
     <mergeCell ref="AB49:AB52"/>
     <mergeCell ref="AB53:AB57"/>
     <mergeCell ref="A53:A57"/>
@@ -27951,48 +27996,24 @@
     <mergeCell ref="AB43:AB47"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="E43:E47"/>
-    <mergeCell ref="AB10:AB13"/>
-    <mergeCell ref="AB14:AB15"/>
-    <mergeCell ref="AB16:AB19"/>
-    <mergeCell ref="AB20:AB24"/>
-    <mergeCell ref="AB25:AB29"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AB71:AB72"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="AB69:AB70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="A1:AY1"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="AB3:AB5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC6" r:id="rId1"/>
@@ -28140,40 +28161,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
     </row>
     <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -28274,23 +28295,23 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74">
         <v>3795623</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="83">
         <v>267267</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="75" t="s">
         <v>169</v>
       </c>
       <c r="H3" s="1"/>
@@ -28307,42 +28328,42 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="11"/>
-      <c r="V3" s="71">
+      <c r="V3" s="73">
         <v>123566534</v>
       </c>
-      <c r="W3" s="71">
+      <c r="W3" s="73">
         <v>4534534534</v>
       </c>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
-      <c r="AB3" s="71" t="s">
+      <c r="AB3" s="73" t="s">
         <v>43</v>
       </c>
       <c r="AC3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD3" s="76" t="s">
+      <c r="AD3" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="76" t="s">
+      <c r="AE3" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="76" t="s">
+      <c r="AF3" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="78"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -28357,36 +28378,36 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-      <c r="AB4" s="71"/>
+      <c r="AB4" s="73"/>
       <c r="AC4" s="1"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72">
+      <c r="C5" s="73"/>
+      <c r="D5" s="74">
         <v>3795623</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="73" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>169</v>
       </c>
       <c r="H5" s="1"/>
@@ -28403,42 +28424,42 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="71">
+      <c r="V5" s="73">
         <v>123566534</v>
       </c>
-      <c r="W5" s="71">
+      <c r="W5" s="73">
         <v>4534534534</v>
       </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-      <c r="AB5" s="71" t="s">
+      <c r="AB5" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AC5" s="80" t="s">
+      <c r="AC5" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="AD5" s="76" t="s">
+      <c r="AD5" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AE5" s="76" t="s">
+      <c r="AE5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AF5" s="76" t="s">
+      <c r="AF5" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="71"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -28453,28 +28474,28 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="71"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="73"/>
       <c r="F7" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -28489,39 +28510,39 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-      <c r="AB7" s="71"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72">
+      <c r="C8" s="73"/>
+      <c r="D8" s="74">
         <v>3795623</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="83" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="77"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -28535,43 +28556,43 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="11"/>
-      <c r="V8" s="71">
+      <c r="V8" s="73">
         <v>123566534</v>
       </c>
-      <c r="W8" s="71">
+      <c r="W8" s="73">
         <v>4534534534</v>
       </c>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
-      <c r="AB8" s="71" t="s">
+      <c r="AB8" s="73" t="s">
         <v>43</v>
       </c>
       <c r="AC8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AD8" s="76" t="s">
+      <c r="AD8" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="76" t="s">
+      <c r="AE8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AF8" s="76" t="s">
+      <c r="AF8" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="75"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -28585,39 +28606,39 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AB9" s="71"/>
+      <c r="AB9" s="73"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72">
+      <c r="C10" s="73"/>
+      <c r="D10" s="74">
         <v>3795623</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="73" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="77" t="s">
+      <c r="G10" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -28631,43 +28652,43 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="71">
+      <c r="V10" s="73">
         <v>123566534</v>
       </c>
-      <c r="W10" s="71">
+      <c r="W10" s="73">
         <v>4534534534</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="71" t="s">
+      <c r="AB10" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AC10" s="80" t="s">
+      <c r="AC10" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="AD10" s="76" t="s">
+      <c r="AD10" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AE10" s="76" t="s">
+      <c r="AE10" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AF10" s="76" t="s">
+      <c r="AF10" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="71"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="73"/>
       <c r="F11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -28681,29 +28702,29 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="71"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -28717,39 +28738,39 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
     </row>
     <row r="13" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="83">
+      <c r="C13" s="75"/>
+      <c r="D13" s="81">
         <v>3795623</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="79" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -28790,16 +28811,16 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="82"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="80"/>
       <c r="F14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -28826,26 +28847,26 @@
       <c r="AF14" s="38"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72">
+      <c r="C15" s="73"/>
+      <c r="D15" s="74">
         <v>3795623</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="73" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G15" s="77" t="s">
+      <c r="G15" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="H15" s="77" t="s">
+      <c r="H15" s="75" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="1"/>
@@ -28861,43 +28882,43 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
-      <c r="V15" s="71">
+      <c r="V15" s="73">
         <v>123566534</v>
       </c>
-      <c r="W15" s="71">
+      <c r="W15" s="73">
         <v>4534534534</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="71" t="s">
+      <c r="AB15" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AC15" s="80" t="s">
+      <c r="AC15" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="AD15" s="76" t="s">
+      <c r="AD15" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="AE15" s="76" t="s">
+      <c r="AE15" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="AF15" s="76" t="s">
+      <c r="AF15" s="71" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -28911,29 +28932,29 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="78"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -28947,41 +28968,57 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
+      <c r="AB17" s="73"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AF15:AF17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="W15:W17"/>
-    <mergeCell ref="AB15:AB17"/>
-    <mergeCell ref="AC15:AC17"/>
-    <mergeCell ref="AD15:AD17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="AE15:AE17"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:W7"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
     <mergeCell ref="AF10:AF12"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="G10:G12"/>
@@ -28998,43 +29035,27 @@
     <mergeCell ref="AB10:AB12"/>
     <mergeCell ref="W8:W9"/>
     <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AD3:AD4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="AE15:AE17"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="AF15:AF17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="AB15:AB17"/>
+    <mergeCell ref="AC15:AC17"/>
+    <mergeCell ref="AD15:AD17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -29196,19 +29217,19 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="57">
         <v>3795623</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -29247,7 +29268,7 @@
       <c r="Y3" s="15"/>
       <c r="Z3" s="15"/>
       <c r="AA3" s="15"/>
-      <c r="AB3" s="59" t="s">
+      <c r="AB3" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC3" s="22" t="s">
@@ -29265,13 +29286,13 @@
       <c r="AG3" s="1"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="15" t="s">
         <v>30</v>
       </c>
@@ -29308,7 +29329,7 @@
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
-      <c r="AB4" s="59"/>
+      <c r="AB4" s="57"/>
       <c r="AC4" s="22" t="s">
         <v>38</v>
       </c>
@@ -29324,13 +29345,13 @@
       <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
@@ -29367,7 +29388,7 @@
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
-      <c r="AB5" s="59"/>
+      <c r="AB5" s="57"/>
       <c r="AC5" s="22" t="s">
         <v>38</v>
       </c>
@@ -29383,13 +29404,13 @@
       <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="63"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="15" t="s">
         <v>26</v>
       </c>
@@ -29418,7 +29439,7 @@
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
-      <c r="AB6" s="59"/>
+      <c r="AB6" s="57"/>
       <c r="AC6" s="22"/>
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
@@ -29426,13 +29447,13 @@
       <c r="AG6" s="1"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="15" t="s">
         <v>26</v>
       </c>
@@ -29461,7 +29482,7 @@
       <c r="Y7" s="15"/>
       <c r="Z7" s="15"/>
       <c r="AA7" s="15"/>
-      <c r="AB7" s="59"/>
+      <c r="AB7" s="57"/>
       <c r="AC7" s="22"/>
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
@@ -29469,13 +29490,13 @@
       <c r="AG7" s="1"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="15" t="s">
         <v>26</v>
       </c>
@@ -29504,7 +29525,7 @@
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
-      <c r="AB8" s="59"/>
+      <c r="AB8" s="57"/>
       <c r="AC8" s="22"/>
       <c r="AD8" s="21"/>
       <c r="AE8" s="21"/>
@@ -29512,13 +29533,13 @@
       <c r="AG8" s="1"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
@@ -29547,7 +29568,7 @@
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
-      <c r="AB9" s="59"/>
+      <c r="AB9" s="57"/>
       <c r="AC9" s="22"/>
       <c r="AD9" s="21"/>
       <c r="AE9" s="21"/>
@@ -29555,13 +29576,13 @@
       <c r="AG9" s="1"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>26</v>
       </c>
@@ -29590,7 +29611,7 @@
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
-      <c r="AB10" s="59"/>
+      <c r="AB10" s="57"/>
       <c r="AC10" s="22"/>
       <c r="AD10" s="21"/>
       <c r="AE10" s="21"/>
@@ -29598,13 +29619,13 @@
       <c r="AG10" s="1"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
@@ -29633,7 +29654,7 @@
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
-      <c r="AB11" s="59"/>
+      <c r="AB11" s="57"/>
       <c r="AC11" s="22"/>
       <c r="AD11" s="21"/>
       <c r="AE11" s="21"/>
@@ -29641,13 +29662,13 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15" t="s">
         <v>91</v>
       </c>
@@ -29688,7 +29709,7 @@
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
-      <c r="AB12" s="59"/>
+      <c r="AB12" s="57"/>
       <c r="AC12" s="22" t="s">
         <v>38</v>
       </c>
@@ -29704,19 +29725,19 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="57">
         <v>3795623</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="15" t="s">
@@ -29755,7 +29776,7 @@
       <c r="Y13" s="15"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
-      <c r="AB13" s="59" t="s">
+      <c r="AB13" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC13" s="22" t="s">
@@ -29773,13 +29794,13 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="15" t="s">
         <v>30</v>
       </c>
@@ -29816,7 +29837,7 @@
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
-      <c r="AB14" s="59"/>
+      <c r="AB14" s="57"/>
       <c r="AC14" s="22" t="s">
         <v>38</v>
       </c>
@@ -29832,13 +29853,13 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="63"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="15" t="s">
         <v>26</v>
       </c>
@@ -29875,7 +29896,7 @@
       <c r="Y15" s="15"/>
       <c r="Z15" s="15"/>
       <c r="AA15" s="15"/>
-      <c r="AB15" s="59"/>
+      <c r="AB15" s="57"/>
       <c r="AC15" s="22" t="s">
         <v>38</v>
       </c>
@@ -29891,13 +29912,13 @@
       <c r="AG15" s="1"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="63"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="15" t="s">
         <v>26</v>
       </c>
@@ -29926,7 +29947,7 @@
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
-      <c r="AB16" s="59"/>
+      <c r="AB16" s="57"/>
       <c r="AC16" s="22"/>
       <c r="AD16" s="21"/>
       <c r="AE16" s="21"/>
@@ -29934,13 +29955,13 @@
       <c r="AG16" s="1"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="15" t="s">
         <v>26</v>
       </c>
@@ -29969,7 +29990,7 @@
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
-      <c r="AB17" s="59"/>
+      <c r="AB17" s="57"/>
       <c r="AC17" s="22"/>
       <c r="AD17" s="21"/>
       <c r="AE17" s="21"/>
@@ -29977,13 +29998,13 @@
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="15" t="s">
         <v>26</v>
       </c>
@@ -30012,7 +30033,7 @@
       <c r="Y18" s="15"/>
       <c r="Z18" s="15"/>
       <c r="AA18" s="15"/>
-      <c r="AB18" s="59"/>
+      <c r="AB18" s="57"/>
       <c r="AC18" s="22"/>
       <c r="AD18" s="21"/>
       <c r="AE18" s="21"/>
@@ -30020,13 +30041,13 @@
       <c r="AG18" s="1"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="15" t="s">
         <v>26</v>
       </c>
@@ -30055,7 +30076,7 @@
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
-      <c r="AB19" s="59"/>
+      <c r="AB19" s="57"/>
       <c r="AC19" s="22"/>
       <c r="AD19" s="21"/>
       <c r="AE19" s="21"/>
@@ -30063,13 +30084,13 @@
       <c r="AG19" s="1"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="15" t="s">
         <v>26</v>
       </c>
@@ -30098,7 +30119,7 @@
       <c r="Y20" s="15"/>
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
-      <c r="AB20" s="59"/>
+      <c r="AB20" s="57"/>
       <c r="AC20" s="22"/>
       <c r="AD20" s="21"/>
       <c r="AE20" s="21"/>
@@ -30106,13 +30127,13 @@
       <c r="AG20" s="1"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="15" t="s">
         <v>26</v>
       </c>
@@ -30141,7 +30162,7 @@
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
-      <c r="AB21" s="59"/>
+      <c r="AB21" s="57"/>
       <c r="AC21" s="22"/>
       <c r="AD21" s="21"/>
       <c r="AE21" s="21"/>
@@ -30149,13 +30170,13 @@
       <c r="AG21" s="1"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="15" t="s">
         <v>91</v>
       </c>
@@ -30196,7 +30217,7 @@
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
-      <c r="AB22" s="59"/>
+      <c r="AB22" s="57"/>
       <c r="AC22" s="22" t="s">
         <v>38</v>
       </c>
@@ -30212,19 +30233,19 @@
       <c r="AG22" s="1"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="57">
         <v>3795623</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -30263,7 +30284,7 @@
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
-      <c r="AB23" s="59" t="s">
+      <c r="AB23" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC23" s="22" t="s">
@@ -30281,13 +30302,13 @@
       <c r="AG23" s="1"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="15" t="s">
         <v>30</v>
       </c>
@@ -30324,7 +30345,7 @@
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
-      <c r="AB24" s="59"/>
+      <c r="AB24" s="57"/>
       <c r="AC24" s="22" t="s">
         <v>38</v>
       </c>
@@ -30340,13 +30361,13 @@
       <c r="AG24" s="1"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="15" t="s">
         <v>26</v>
       </c>
@@ -30383,7 +30404,7 @@
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
-      <c r="AB25" s="59"/>
+      <c r="AB25" s="57"/>
       <c r="AC25" s="22" t="s">
         <v>38</v>
       </c>
@@ -30399,13 +30420,13 @@
       <c r="AG25" s="1"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="63"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="15" t="s">
         <v>26</v>
       </c>
@@ -30434,7 +30455,7 @@
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
-      <c r="AB26" s="59"/>
+      <c r="AB26" s="57"/>
       <c r="AC26" s="22"/>
       <c r="AD26" s="21"/>
       <c r="AE26" s="21"/>
@@ -30442,13 +30463,13 @@
       <c r="AG26" s="1"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="63"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
       <c r="F27" s="15" t="s">
         <v>26</v>
       </c>
@@ -30477,7 +30498,7 @@
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
-      <c r="AB27" s="59"/>
+      <c r="AB27" s="57"/>
       <c r="AC27" s="22"/>
       <c r="AD27" s="21"/>
       <c r="AE27" s="21"/>
@@ -30485,13 +30506,13 @@
       <c r="AG27" s="1"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="15" t="s">
         <v>26</v>
       </c>
@@ -30520,7 +30541,7 @@
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
       <c r="AA28" s="15"/>
-      <c r="AB28" s="59"/>
+      <c r="AB28" s="57"/>
       <c r="AC28" s="22"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
@@ -30528,13 +30549,13 @@
       <c r="AG28" s="1"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="15" t="s">
         <v>26</v>
       </c>
@@ -30563,7 +30584,7 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
-      <c r="AB29" s="59"/>
+      <c r="AB29" s="57"/>
       <c r="AC29" s="22"/>
       <c r="AD29" s="21"/>
       <c r="AE29" s="21"/>
@@ -30571,13 +30592,13 @@
       <c r="AG29" s="1"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="15" t="s">
         <v>26</v>
       </c>
@@ -30606,7 +30627,7 @@
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
-      <c r="AB30" s="59"/>
+      <c r="AB30" s="57"/>
       <c r="AC30" s="22"/>
       <c r="AD30" s="21"/>
       <c r="AE30" s="21"/>
@@ -30614,13 +30635,13 @@
       <c r="AG30" s="1"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="63"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="15" t="s">
         <v>26</v>
       </c>
@@ -30649,7 +30670,7 @@
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
-      <c r="AB31" s="59"/>
+      <c r="AB31" s="57"/>
       <c r="AC31" s="22"/>
       <c r="AD31" s="21"/>
       <c r="AE31" s="21"/>
@@ -30657,13 +30678,13 @@
       <c r="AG31" s="1"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="15" t="s">
         <v>91</v>
       </c>
@@ -30704,7 +30725,7 @@
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
       <c r="AA32" s="15"/>
-      <c r="AB32" s="59"/>
+      <c r="AB32" s="57"/>
       <c r="AC32" s="22" t="s">
         <v>38</v>
       </c>
@@ -30720,19 +30741,19 @@
       <c r="AG32" s="1"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="59">
+      <c r="D33" s="57">
         <v>3795623</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="15" t="s">
@@ -30771,7 +30792,7 @@
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
       <c r="AA33" s="15"/>
-      <c r="AB33" s="59" t="s">
+      <c r="AB33" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC33" s="22" t="s">
@@ -30789,13 +30810,13 @@
       <c r="AG33" s="1"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="63"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="15" t="s">
         <v>30</v>
       </c>
@@ -30832,7 +30853,7 @@
       <c r="Y34" s="15"/>
       <c r="Z34" s="15"/>
       <c r="AA34" s="15"/>
-      <c r="AB34" s="59"/>
+      <c r="AB34" s="57"/>
       <c r="AC34" s="22" t="s">
         <v>38</v>
       </c>
@@ -30848,13 +30869,13 @@
       <c r="AG34" s="1"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="63"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="15" t="s">
         <v>26</v>
       </c>
@@ -30891,7 +30912,7 @@
       <c r="Y35" s="15"/>
       <c r="Z35" s="15"/>
       <c r="AA35" s="15"/>
-      <c r="AB35" s="59"/>
+      <c r="AB35" s="57"/>
       <c r="AC35" s="22" t="s">
         <v>38</v>
       </c>
@@ -30907,13 +30928,13 @@
       <c r="AG35" s="1"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="63"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="15" t="s">
         <v>26</v>
       </c>
@@ -30942,7 +30963,7 @@
       <c r="Y36" s="15"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="15"/>
-      <c r="AB36" s="59"/>
+      <c r="AB36" s="57"/>
       <c r="AC36" s="22"/>
       <c r="AD36" s="21"/>
       <c r="AE36" s="21"/>
@@ -30950,13 +30971,13 @@
       <c r="AG36" s="1"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="63"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="15" t="s">
         <v>26</v>
       </c>
@@ -30985,7 +31006,7 @@
       <c r="Y37" s="15"/>
       <c r="Z37" s="15"/>
       <c r="AA37" s="15"/>
-      <c r="AB37" s="59"/>
+      <c r="AB37" s="57"/>
       <c r="AC37" s="22"/>
       <c r="AD37" s="21"/>
       <c r="AE37" s="21"/>
@@ -30993,13 +31014,13 @@
       <c r="AG37" s="1"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="63"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="15" t="s">
         <v>26</v>
       </c>
@@ -31028,7 +31049,7 @@
       <c r="Y38" s="15"/>
       <c r="Z38" s="15"/>
       <c r="AA38" s="15"/>
-      <c r="AB38" s="59"/>
+      <c r="AB38" s="57"/>
       <c r="AC38" s="22"/>
       <c r="AD38" s="21"/>
       <c r="AE38" s="21"/>
@@ -31036,13 +31057,13 @@
       <c r="AG38" s="1"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="63"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="15" t="s">
         <v>26</v>
       </c>
@@ -31071,7 +31092,7 @@
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
-      <c r="AB39" s="59"/>
+      <c r="AB39" s="57"/>
       <c r="AC39" s="22"/>
       <c r="AD39" s="21"/>
       <c r="AE39" s="21"/>
@@ -31079,13 +31100,13 @@
       <c r="AG39" s="1"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="63"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="15" t="s">
         <v>26</v>
       </c>
@@ -31114,7 +31135,7 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
-      <c r="AB40" s="59"/>
+      <c r="AB40" s="57"/>
       <c r="AC40" s="22"/>
       <c r="AD40" s="21"/>
       <c r="AE40" s="21"/>
@@ -31122,13 +31143,13 @@
       <c r="AG40" s="1"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="63"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="15" t="s">
         <v>26</v>
       </c>
@@ -31157,7 +31178,7 @@
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
-      <c r="AB41" s="59"/>
+      <c r="AB41" s="57"/>
       <c r="AC41" s="22"/>
       <c r="AD41" s="21"/>
       <c r="AE41" s="21"/>
@@ -31165,13 +31186,13 @@
       <c r="AG41" s="1"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="63"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="15" t="s">
         <v>91</v>
       </c>
@@ -31212,7 +31233,7 @@
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
-      <c r="AB42" s="59"/>
+      <c r="AB42" s="57"/>
       <c r="AC42" s="22" t="s">
         <v>38</v>
       </c>
@@ -31228,19 +31249,19 @@
       <c r="AG42" s="1"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="57">
         <v>3795623</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -31279,7 +31300,7 @@
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
-      <c r="AB43" s="59" t="s">
+      <c r="AB43" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC43" s="22" t="s">
@@ -31297,13 +31318,13 @@
       <c r="AG43" s="1"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="63"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="15" t="s">
         <v>30</v>
       </c>
@@ -31340,7 +31361,7 @@
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
-      <c r="AB44" s="59"/>
+      <c r="AB44" s="57"/>
       <c r="AC44" s="22" t="s">
         <v>38</v>
       </c>
@@ -31356,13 +31377,13 @@
       <c r="AG44" s="1"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="63"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="15" t="s">
         <v>26</v>
       </c>
@@ -31399,7 +31420,7 @@
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
-      <c r="AB45" s="59"/>
+      <c r="AB45" s="57"/>
       <c r="AC45" s="22" t="s">
         <v>38</v>
       </c>
@@ -31415,13 +31436,13 @@
       <c r="AG45" s="1"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="15" t="s">
         <v>26</v>
       </c>
@@ -31450,7 +31471,7 @@
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
-      <c r="AB46" s="59"/>
+      <c r="AB46" s="57"/>
       <c r="AC46" s="22"/>
       <c r="AD46" s="21"/>
       <c r="AE46" s="21"/>
@@ -31458,13 +31479,13 @@
       <c r="AG46" s="1"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="63"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
       <c r="F47" s="15" t="s">
         <v>26</v>
       </c>
@@ -31493,7 +31514,7 @@
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
-      <c r="AB47" s="59"/>
+      <c r="AB47" s="57"/>
       <c r="AC47" s="22"/>
       <c r="AD47" s="21"/>
       <c r="AE47" s="21"/>
@@ -31501,13 +31522,13 @@
       <c r="AG47" s="1"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="63"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="15" t="s">
         <v>26</v>
       </c>
@@ -31536,7 +31557,7 @@
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
-      <c r="AB48" s="59"/>
+      <c r="AB48" s="57"/>
       <c r="AC48" s="22"/>
       <c r="AD48" s="21"/>
       <c r="AE48" s="21"/>
@@ -31544,13 +31565,13 @@
       <c r="AG48" s="1"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="63"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="15" t="s">
         <v>26</v>
       </c>
@@ -31579,7 +31600,7 @@
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
-      <c r="AB49" s="59"/>
+      <c r="AB49" s="57"/>
       <c r="AC49" s="22"/>
       <c r="AD49" s="21"/>
       <c r="AE49" s="21"/>
@@ -31587,13 +31608,13 @@
       <c r="AG49" s="1"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="63"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="15" t="s">
         <v>26</v>
       </c>
@@ -31622,7 +31643,7 @@
       <c r="Y50" s="15"/>
       <c r="Z50" s="15"/>
       <c r="AA50" s="15"/>
-      <c r="AB50" s="59"/>
+      <c r="AB50" s="57"/>
       <c r="AC50" s="22"/>
       <c r="AD50" s="21"/>
       <c r="AE50" s="21"/>
@@ -31630,13 +31651,13 @@
       <c r="AG50" s="1"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="63"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="15" t="s">
         <v>26</v>
       </c>
@@ -31665,7 +31686,7 @@
       <c r="Y51" s="15"/>
       <c r="Z51" s="15"/>
       <c r="AA51" s="15"/>
-      <c r="AB51" s="59"/>
+      <c r="AB51" s="57"/>
       <c r="AC51" s="22"/>
       <c r="AD51" s="21"/>
       <c r="AE51" s="21"/>
@@ -31673,13 +31694,13 @@
       <c r="AG51" s="1"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="63"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="15" t="s">
         <v>91</v>
       </c>
@@ -31720,7 +31741,7 @@
       <c r="Y52" s="15"/>
       <c r="Z52" s="15"/>
       <c r="AA52" s="15"/>
-      <c r="AB52" s="59"/>
+      <c r="AB52" s="57"/>
       <c r="AC52" s="22" t="s">
         <v>38</v>
       </c>
@@ -31736,19 +31757,19 @@
       <c r="AG52" s="1"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
+      <c r="A53" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="57" t="s">
         <v>41</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="59">
+      <c r="D53" s="57">
         <v>3795623</v>
       </c>
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="15" t="s">
@@ -31789,7 +31810,7 @@
       <c r="Y53" s="15"/>
       <c r="Z53" s="15"/>
       <c r="AA53" s="15"/>
-      <c r="AB53" s="59" t="s">
+      <c r="AB53" s="57" t="s">
         <v>43</v>
       </c>
       <c r="AC53" s="22" t="s">
@@ -31807,13 +31828,13 @@
       <c r="AG53" s="1"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="63"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="15" t="s">
         <v>30</v>
       </c>
@@ -31850,7 +31871,7 @@
       <c r="Y54" s="15"/>
       <c r="Z54" s="15"/>
       <c r="AA54" s="15"/>
-      <c r="AB54" s="59"/>
+      <c r="AB54" s="57"/>
       <c r="AC54" s="22" t="s">
         <v>38</v>
       </c>
@@ -31866,13 +31887,13 @@
       <c r="AG54" s="1"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="63"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="15" t="s">
         <v>26</v>
       </c>
@@ -31909,7 +31930,7 @@
       <c r="Y55" s="15"/>
       <c r="Z55" s="15"/>
       <c r="AA55" s="15"/>
-      <c r="AB55" s="59"/>
+      <c r="AB55" s="57"/>
       <c r="AC55" s="22" t="s">
         <v>38</v>
       </c>
@@ -31925,13 +31946,13 @@
       <c r="AG55" s="1"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="63"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="15" t="s">
         <v>26</v>
       </c>
@@ -31960,7 +31981,7 @@
       <c r="Y56" s="15"/>
       <c r="Z56" s="15"/>
       <c r="AA56" s="15"/>
-      <c r="AB56" s="59"/>
+      <c r="AB56" s="57"/>
       <c r="AC56" s="22"/>
       <c r="AD56" s="21"/>
       <c r="AE56" s="21"/>
@@ -31968,13 +31989,13 @@
       <c r="AG56" s="1"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="63"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="15" t="s">
         <v>26</v>
       </c>
@@ -32003,7 +32024,7 @@
       <c r="Y57" s="15"/>
       <c r="Z57" s="15"/>
       <c r="AA57" s="15"/>
-      <c r="AB57" s="59"/>
+      <c r="AB57" s="57"/>
       <c r="AC57" s="22"/>
       <c r="AD57" s="21"/>
       <c r="AE57" s="21"/>
@@ -32011,13 +32032,13 @@
       <c r="AG57" s="1"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="63"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="15" t="s">
         <v>26</v>
       </c>
@@ -32046,7 +32067,7 @@
       <c r="Y58" s="15"/>
       <c r="Z58" s="15"/>
       <c r="AA58" s="15"/>
-      <c r="AB58" s="59"/>
+      <c r="AB58" s="57"/>
       <c r="AC58" s="22"/>
       <c r="AD58" s="21"/>
       <c r="AE58" s="21"/>
@@ -32054,13 +32075,13 @@
       <c r="AG58" s="1"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="63"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="58"/>
       <c r="F59" s="15" t="s">
         <v>26</v>
       </c>
@@ -32089,7 +32110,7 @@
       <c r="Y59" s="15"/>
       <c r="Z59" s="15"/>
       <c r="AA59" s="15"/>
-      <c r="AB59" s="59"/>
+      <c r="AB59" s="57"/>
       <c r="AC59" s="22"/>
       <c r="AD59" s="21"/>
       <c r="AE59" s="21"/>
@@ -32097,13 +32118,13 @@
       <c r="AG59" s="1"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="63"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="15" t="s">
         <v>26</v>
       </c>
@@ -32132,7 +32153,7 @@
       <c r="Y60" s="15"/>
       <c r="Z60" s="15"/>
       <c r="AA60" s="15"/>
-      <c r="AB60" s="59"/>
+      <c r="AB60" s="57"/>
       <c r="AC60" s="22"/>
       <c r="AD60" s="21"/>
       <c r="AE60" s="21"/>
@@ -32140,13 +32161,13 @@
       <c r="AG60" s="1"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="63"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="15" t="s">
         <v>26</v>
       </c>
@@ -32175,7 +32196,7 @@
       <c r="Y61" s="15"/>
       <c r="Z61" s="15"/>
       <c r="AA61" s="15"/>
-      <c r="AB61" s="59"/>
+      <c r="AB61" s="57"/>
       <c r="AC61" s="22"/>
       <c r="AD61" s="21"/>
       <c r="AE61" s="21"/>
@@ -32183,13 +32204,13 @@
       <c r="AG61" s="1"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="63"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="15" t="s">
         <v>91</v>
       </c>
@@ -32230,7 +32251,7 @@
       <c r="Y62" s="15"/>
       <c r="Z62" s="15"/>
       <c r="AA62" s="15"/>
-      <c r="AB62" s="59"/>
+      <c r="AB62" s="57"/>
       <c r="AC62" s="22" t="s">
         <v>38</v>
       </c>
@@ -32247,22 +32268,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E3:E12"/>
-    <mergeCell ref="AB3:AB12"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="D23:D32"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="AB23:AB32"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="D13:D22"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="AB13:AB22"/>
     <mergeCell ref="AB53:AB62"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="B33:B42"/>
@@ -32279,6 +32284,22 @@
     <mergeCell ref="D53:D62"/>
     <mergeCell ref="E53:E62"/>
     <mergeCell ref="T53:T62"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="D13:D22"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="AB13:AB22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="D23:D32"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="AB23:AB32"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E3:E12"/>
+    <mergeCell ref="AB3:AB12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC3" r:id="rId1"/>
@@ -32415,19 +32436,19 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
@@ -32477,13 +32498,13 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="63"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
@@ -32531,13 +32552,13 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15" t="s">
         <v>7</v>
       </c>
@@ -32585,13 +32606,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="59"/>
-      <c r="E6" s="63"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="15" t="s">
         <v>7</v>
       </c>
@@ -32639,19 +32660,19 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -32701,13 +32722,13 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
@@ -32757,13 +32778,13 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="15" t="s">
         <v>7</v>
       </c>
@@ -32811,13 +32832,13 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="15" t="s">
         <v>7</v>
       </c>
@@ -32865,19 +32886,19 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="59">
+      <c r="D11" s="57">
         <v>100118301</v>
       </c>
-      <c r="E11" s="63" t="s">
+      <c r="E11" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="15" t="s">
@@ -32927,13 +32948,13 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="15" t="s">
         <v>7</v>
       </c>
@@ -32983,13 +33004,13 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="15" t="s">
         <v>7</v>
       </c>
@@ -33037,13 +33058,13 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="15" t="s">
         <v>7</v>
       </c>
@@ -33091,19 +33112,19 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="59">
+      <c r="D15" s="57">
         <v>100118301</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="15" t="s">
@@ -33153,13 +33174,13 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="63"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="15" t="s">
         <v>7</v>
       </c>
@@ -33209,13 +33230,13 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="15" t="s">
         <v>7</v>
       </c>
@@ -33263,13 +33284,13 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="15" t="s">
         <v>7</v>
       </c>
@@ -33317,19 +33338,19 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="15" t="s">
@@ -33377,13 +33398,13 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="15" t="s">
         <v>235</v>
       </c>
@@ -33431,13 +33452,13 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
       <c r="F21" s="15" t="s">
         <v>235</v>
       </c>
@@ -33483,13 +33504,13 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="15" t="s">
         <v>235</v>
       </c>
@@ -33535,19 +33556,19 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="56" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="63" t="s">
+      <c r="E23" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="15" t="s">
@@ -33595,13 +33616,13 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="15" t="s">
         <v>235</v>
       </c>
@@ -33649,13 +33670,13 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="15" t="s">
         <v>235</v>
       </c>
@@ -33701,13 +33722,13 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="63"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="15" t="s">
         <v>235</v>
       </c>
@@ -33753,19 +33774,19 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="59">
+      <c r="D27" s="57">
         <v>100118301</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="15" t="s">
@@ -33813,13 +33834,13 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="59"/>
-      <c r="E28" s="63"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="15" t="s">
         <v>235</v>
       </c>
@@ -33867,13 +33888,13 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="63"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
       <c r="F29" s="15" t="s">
         <v>235</v>
       </c>
@@ -33919,13 +33940,13 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="63"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
       <c r="F30" s="15" t="s">
         <v>235</v>
       </c>
@@ -33971,19 +33992,19 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="59">
+      <c r="D31" s="57">
         <v>100118301</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15" t="s">
@@ -34033,13 +34054,13 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="63"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="58"/>
       <c r="F32" s="15" t="s">
         <v>235</v>
       </c>
@@ -34089,13 +34110,13 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="63"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="15" t="s">
         <v>235</v>
       </c>
@@ -34141,13 +34162,13 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D34" s="59"/>
-      <c r="E34" s="63"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="15" t="s">
         <v>235</v>
       </c>
@@ -34195,19 +34216,19 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="15" t="s">
@@ -34255,13 +34276,13 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="59"/>
-      <c r="E36" s="63"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="15" t="s">
         <v>240</v>
       </c>
@@ -34313,13 +34334,13 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="63"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
       <c r="F37" s="15" t="s">
         <v>240</v>
       </c>
@@ -34367,13 +34388,13 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="59"/>
-      <c r="E38" s="63"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="15" t="s">
         <v>240</v>
       </c>
@@ -34423,19 +34444,19 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="59" t="s">
+      <c r="D39" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
@@ -34485,13 +34506,13 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="58"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="59"/>
-      <c r="E40" s="63"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58"/>
       <c r="F40" s="15" t="s">
         <v>240</v>
       </c>
@@ -34543,13 +34564,13 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="59"/>
-      <c r="E41" s="63"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58"/>
       <c r="F41" s="15" t="s">
         <v>240</v>
       </c>
@@ -34597,13 +34618,13 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="63"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58"/>
       <c r="F42" s="15" t="s">
         <v>240</v>
       </c>
@@ -34653,19 +34674,19 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A43" s="58" t="s">
+      <c r="A43" s="56" t="s">
         <v>242</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="59">
+      <c r="D43" s="57">
         <v>100118301</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15" t="s">
@@ -34715,13 +34736,13 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="63"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="15" t="s">
         <v>240</v>
       </c>
@@ -34773,13 +34794,13 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="63"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
       <c r="F45" s="15" t="s">
         <v>240</v>
       </c>
@@ -34827,13 +34848,13 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="63"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="58"/>
       <c r="F46" s="15" t="s">
         <v>240</v>
       </c>
@@ -34883,19 +34904,19 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="57">
         <v>100118301</v>
       </c>
-      <c r="E47" s="63" t="s">
+      <c r="E47" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="15" t="s">
@@ -34945,13 +34966,13 @@
       </c>
     </row>
     <row r="48" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="63"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="58"/>
       <c r="F48" s="15" t="s">
         <v>240</v>
       </c>
@@ -35003,13 +35024,13 @@
       </c>
     </row>
     <row r="49" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="63"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
       <c r="F49" s="15" t="s">
         <v>240</v>
       </c>
@@ -35057,13 +35078,13 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="58"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="63"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="15" t="s">
         <v>240</v>
       </c>
@@ -35113,19 +35134,19 @@
       </c>
     </row>
     <row r="51" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="15" t="s">
@@ -35177,13 +35198,13 @@
       </c>
     </row>
     <row r="52" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="63"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="58"/>
       <c r="F52" s="15" t="s">
         <v>30</v>
       </c>
@@ -35233,13 +35254,13 @@
       </c>
     </row>
     <row r="53" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="63"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="15" t="s">
         <v>30</v>
       </c>
@@ -35287,13 +35308,13 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="59"/>
-      <c r="E54" s="63"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="15" t="s">
         <v>30</v>
       </c>
@@ -35341,19 +35362,19 @@
       </c>
     </row>
     <row r="55" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D55" s="59" t="s">
+      <c r="D55" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="15" t="s">
@@ -35403,13 +35424,13 @@
       </c>
     </row>
     <row r="56" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="63"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
       <c r="F56" s="15" t="s">
         <v>30</v>
       </c>
@@ -35459,13 +35480,13 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="63"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="58"/>
       <c r="F57" s="15" t="s">
         <v>30</v>
       </c>
@@ -35513,13 +35534,13 @@
       </c>
     </row>
     <row r="58" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="63"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="58"/>
       <c r="F58" s="15" t="s">
         <v>30</v>
       </c>
@@ -35567,19 +35588,19 @@
       </c>
     </row>
     <row r="59" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="A59" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="59">
+      <c r="D59" s="57">
         <v>100118301</v>
       </c>
-      <c r="E59" s="63" t="s">
+      <c r="E59" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="15" t="s">
@@ -35629,13 +35650,13 @@
       </c>
     </row>
     <row r="60" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="63"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
       <c r="F60" s="15" t="s">
         <v>30</v>
       </c>
@@ -35685,13 +35706,13 @@
       </c>
     </row>
     <row r="61" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="59"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="59"/>
-      <c r="E61" s="63"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="58"/>
       <c r="F61" s="15" t="s">
         <v>30</v>
       </c>
@@ -35739,13 +35760,13 @@
       </c>
     </row>
     <row r="62" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="59"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="63"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
       <c r="F62" s="15" t="s">
         <v>30</v>
       </c>
@@ -35793,19 +35814,19 @@
       </c>
     </row>
     <row r="63" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="56" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="59">
+      <c r="D63" s="57">
         <v>100118301</v>
       </c>
-      <c r="E63" s="63" t="s">
+      <c r="E63" s="58" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="15" t="s">
@@ -35855,13 +35876,13 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="105" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="59"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="59"/>
-      <c r="E64" s="63"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="58"/>
       <c r="F64" s="15" t="s">
         <v>30</v>
       </c>
@@ -35911,13 +35932,13 @@
       </c>
     </row>
     <row r="65" spans="1:22" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="59"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="63"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="15" t="s">
         <v>30</v>
       </c>
@@ -35965,13 +35986,13 @@
       </c>
     </row>
     <row r="66" spans="1:22" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="59"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="63"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="15" t="s">
         <v>30</v>
       </c>
@@ -36020,6 +36041,62 @@
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="D47:D50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="A7:A10"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="D7:D10"/>
@@ -36029,62 +36106,6 @@
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="D47:D50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
